--- a/gifference_data_engagement.xlsx
+++ b/gifference_data_engagement.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoamabili/Library/Mobile Documents/com~apple~CloudDocs/GIFferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD3070B-C178-F842-8FEC-BF92843762EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B01F5-28F2-5246-A51F-02AF9EE75052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{2FE08485-BB53-A442-A6B6-8507BA0B64BA}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320" xr2:uid="{2FE08485-BB53-A442-A6B6-8507BA0B64BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,16 +33,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>condition</t>
+    <t>vl_level</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>cb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,6 +71,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,6 +110,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE2A12D-2B4F-AC47-94F2-6998A97150EA}">
-  <dimension ref="A1:AD93"/>
+  <dimension ref="A1:AF93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC23" sqref="A1:XFD1048576"/>
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +443,7 @@
     <col min="30" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -509,11 +529,19 @@
         <v>28</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -601,9 +629,17 @@
       <c r="AC2" s="2">
         <v>1</v>
       </c>
-      <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -691,9 +727,17 @@
       <c r="AC3" s="2">
         <v>1</v>
       </c>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -781,9 +825,17 @@
       <c r="AC4" s="2">
         <v>1</v>
       </c>
-      <c r="AD4" s="2"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -871,9 +923,17 @@
       <c r="AC5" s="2">
         <v>1</v>
       </c>
-      <c r="AD5" s="2"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -961,9 +1021,17 @@
       <c r="AC6" s="2">
         <v>1</v>
       </c>
-      <c r="AD6" s="2"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD6" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1051,9 +1119,17 @@
       <c r="AC7" s="2">
         <v>1</v>
       </c>
-      <c r="AD7" s="2"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1141,9 +1217,17 @@
       <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="AD8" s="2"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1231,9 +1315,17 @@
       <c r="AC9" s="2">
         <v>1</v>
       </c>
-      <c r="AD9" s="2"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1321,9 +1413,17 @@
       <c r="AC10" s="2">
         <v>1</v>
       </c>
-      <c r="AD10" s="2"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1411,9 +1511,17 @@
       <c r="AC11" s="2">
         <v>1</v>
       </c>
-      <c r="AD11" s="2"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1501,9 +1609,17 @@
       <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="2"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -1591,9 +1707,17 @@
       <c r="AC13" s="2">
         <v>1</v>
       </c>
-      <c r="AD13" s="2"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -1681,9 +1805,17 @@
       <c r="AC14" s="2">
         <v>2</v>
       </c>
-      <c r="AD14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -1771,9 +1903,17 @@
       <c r="AC15" s="2">
         <v>2</v>
       </c>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -1861,9 +2001,17 @@
       <c r="AC16" s="2">
         <v>2</v>
       </c>
-      <c r="AD16" s="2"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD16" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1951,9 +2099,17 @@
       <c r="AC17" s="2">
         <v>2</v>
       </c>
-      <c r="AD17" s="2"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -2041,9 +2197,17 @@
       <c r="AC18" s="2">
         <v>2</v>
       </c>
-      <c r="AD18" s="2"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2131,9 +2295,17 @@
       <c r="AC19" s="2">
         <v>2</v>
       </c>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -2221,9 +2393,17 @@
       <c r="AC20" s="2">
         <v>2</v>
       </c>
-      <c r="AD20" s="2"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -2311,9 +2491,17 @@
       <c r="AC21" s="2">
         <v>2</v>
       </c>
-      <c r="AD21" s="2"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -2401,9 +2589,17 @@
       <c r="AC22" s="2">
         <v>2</v>
       </c>
-      <c r="AD22" s="2"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -2491,9 +2687,17 @@
       <c r="AC23" s="2">
         <v>2</v>
       </c>
-      <c r="AD23" s="2"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD23" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -2581,9 +2785,17 @@
       <c r="AC24" s="2">
         <v>2</v>
       </c>
-      <c r="AD24" s="2"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD24" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>7</v>
       </c>
@@ -2671,9 +2883,17 @@
       <c r="AC25" s="2">
         <v>2</v>
       </c>
-      <c r="AD25" s="2"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD25" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>7</v>
       </c>
@@ -2761,9 +2981,17 @@
       <c r="AC26" s="2">
         <v>3</v>
       </c>
-      <c r="AD26" s="2"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -2851,9 +3079,17 @@
       <c r="AC27" s="2">
         <v>3</v>
       </c>
-      <c r="AD27" s="2"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -2941,9 +3177,17 @@
       <c r="AC28" s="2">
         <v>3</v>
       </c>
-      <c r="AD28" s="2"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -3031,9 +3275,17 @@
       <c r="AC29" s="2">
         <v>3</v>
       </c>
-      <c r="AD29" s="2"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>7</v>
       </c>
@@ -3121,9 +3373,17 @@
       <c r="AC30" s="2">
         <v>3</v>
       </c>
-      <c r="AD30" s="2"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -3211,9 +3471,17 @@
       <c r="AC31" s="2">
         <v>3</v>
       </c>
-      <c r="AD31" s="2"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7</v>
       </c>
@@ -3301,9 +3569,17 @@
       <c r="AC32" s="2">
         <v>3</v>
       </c>
-      <c r="AD32" s="2"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>6</v>
       </c>
@@ -3391,9 +3667,17 @@
       <c r="AC33" s="2">
         <v>3</v>
       </c>
-      <c r="AD33" s="2"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -3481,9 +3765,17 @@
       <c r="AC34" s="2">
         <v>3</v>
       </c>
-      <c r="AD34" s="2"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -3571,9 +3863,17 @@
       <c r="AC35" s="2">
         <v>3</v>
       </c>
-      <c r="AD35" s="2"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD35" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -3661,9 +3961,17 @@
       <c r="AC36" s="2">
         <v>3</v>
       </c>
-      <c r="AD36" s="2"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD36" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>6</v>
       </c>
@@ -3751,9 +4059,17 @@
       <c r="AC37" s="2">
         <v>3</v>
       </c>
-      <c r="AD37" s="2"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD37" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>6</v>
       </c>
@@ -3841,9 +4157,17 @@
       <c r="AC38" s="2">
         <v>4</v>
       </c>
-      <c r="AD38" s="2"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -3931,9 +4255,17 @@
       <c r="AC39" s="2">
         <v>4</v>
       </c>
-      <c r="AD39" s="2"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD39" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>6</v>
       </c>
@@ -4021,9 +4353,17 @@
       <c r="AC40" s="2">
         <v>4</v>
       </c>
-      <c r="AD40" s="2"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>6</v>
       </c>
@@ -4111,9 +4451,17 @@
       <c r="AC41" s="2">
         <v>4</v>
       </c>
-      <c r="AD41" s="2"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD41" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>6</v>
       </c>
@@ -4201,9 +4549,17 @@
       <c r="AC42" s="2">
         <v>4</v>
       </c>
-      <c r="AD42" s="2"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>6</v>
       </c>
@@ -4291,9 +4647,17 @@
       <c r="AC43" s="2">
         <v>4</v>
       </c>
-      <c r="AD43" s="2"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD43" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -4381,9 +4745,17 @@
       <c r="AC44" s="2">
         <v>4</v>
       </c>
-      <c r="AD44" s="2"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD44" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>6</v>
       </c>
@@ -4471,9 +4843,17 @@
       <c r="AC45" s="2">
         <v>4</v>
       </c>
-      <c r="AD45" s="2"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -4561,9 +4941,17 @@
       <c r="AC46" s="2">
         <v>4</v>
       </c>
-      <c r="AD46" s="2"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD46" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -4651,9 +5039,17 @@
       <c r="AC47" s="2">
         <v>4</v>
       </c>
-      <c r="AD47" s="2"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD47" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -4741,9 +5137,17 @@
       <c r="AC48" s="2">
         <v>4</v>
       </c>
-      <c r="AD48" s="2"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -4831,9 +5235,17 @@
       <c r="AC49" s="2">
         <v>4</v>
       </c>
-      <c r="AD49" s="2"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD49" s="2">
+        <v>3</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4865,7 +5277,7 @@
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4897,7 +5309,7 @@
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4929,7 +5341,7 @@
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4961,7 +5373,7 @@
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4993,7 +5405,7 @@
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5025,7 +5437,7 @@
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5057,7 +5469,7 @@
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5089,7 +5501,7 @@
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5121,7 +5533,7 @@
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5153,7 +5565,7 @@
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5185,7 +5597,7 @@
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5217,7 +5629,7 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5249,7 +5661,7 @@
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5281,7 +5693,7 @@
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
